--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t xml:space="preserve">رقم العقار</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">السعر الرائج</t>
   </si>
   <si>
-    <t xml:space="preserve">العائدة</t>
+    <t xml:space="preserve">العائدية</t>
   </si>
   <si>
     <t xml:space="preserve">المنطقة</t>
@@ -49,9 +49,6 @@
     <t xml:space="preserve">1ll</t>
   </si>
   <si>
-    <t xml:space="preserve">محمد 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">دمشق</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">منطقة4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مقسم/104</t>
   </si>
   <si>
     <t xml:space="preserve">محمد 3</t>
@@ -184,9 +178,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -381,431 +387,408 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.34"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>12</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:H17"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
